--- a/docs/so-good-apartments/underwriting-templates/rent_roll_template.xlsx
+++ b/docs/so-good-apartments/underwriting-templates/rent_roll_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Current Rent Roll" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Rent Roll" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Current Rent Roll'!$6:$6</definedName>
@@ -195,6 +195,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,5 +1158,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/so-good-apartments/underwriting-templates/rent_roll_template.xlsx
+++ b/docs/so-good-apartments/underwriting-templates/rent_roll_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Rent Roll" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Current Rent Roll" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Current Rent Roll'!$6:$6</definedName>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -213,13 +213,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1025,26 +1025,14 @@
       <c r="B27" s="11" t="n"/>
       <c r="C27" s="11" t="n"/>
       <c r="D27" s="11" t="n"/>
-      <c r="E27" s="12">
-        <f>SUM(E7:E26)</f>
-        <v/>
-      </c>
+      <c r="E27" s="12" t="n"/>
       <c r="F27" s="11" t="n"/>
       <c r="G27" s="11" t="n"/>
       <c r="H27" s="11" t="n"/>
       <c r="I27" s="11" t="n"/>
-      <c r="J27" s="13">
-        <f>SUM(J7:J26)</f>
-        <v/>
-      </c>
-      <c r="K27" s="13">
-        <f>SUM(K7:K26)</f>
-        <v/>
-      </c>
-      <c r="L27" s="14">
-        <f>IF(E27&gt;0,J27/E27,0)</f>
-        <v/>
-      </c>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13" t="n"/>
+      <c r="L27" s="14" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="inlineStr">
